--- a/data-raw/petersen.sorghum.cowpea.xlsx
+++ b/data-raw/petersen.sorghum.cowpea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD57BD-76B0-4A67-A2F4-DD583AF9A194}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFAD4B-2D80-4225-B8F7-7F7986A8445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{D42237F6-1618-47EB-8792-E1E46BB7151D}"/>
+    <workbookView xWindow="41985" yWindow="3975" windowWidth="11385" windowHeight="12195" xr2:uid="{D42237F6-1618-47EB-8792-E1E46BB7151D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,9 +428,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,7 +464,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -476,7 +481,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -493,7 +498,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -510,7 +515,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -527,7 +532,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -544,7 +549,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -561,7 +566,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -578,7 +583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -595,7 +600,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -612,7 +617,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -629,7 +634,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -646,7 +651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -663,7 +668,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -680,7 +685,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -697,7 +702,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -714,7 +719,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>5</v>
       </c>
@@ -728,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0</v>
       </c>
@@ -749,21 +754,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004B173967BF8014FBED5AD3086470824" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0ddcbc2d7733f65aea7b95e3b165f36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="83d22809-4570-4008-babe-3ae5f737a446" xmlns:ns4="848defe1-ccd9-4d84-9093-f78a75d0b7a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f80cc2491ee6b62a8776b7c0cff6189" ns3:_="" ns4:_="">
     <xsd:import namespace="83d22809-4570-4008-babe-3ae5f737a446"/>
@@ -980,32 +970,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFCEF94-47CC-4377-885A-3F4E6CFE41EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="83d22809-4570-4008-babe-3ae5f737a446"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="848defe1-ccd9-4d84-9093-f78a75d0b7a6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF0DDD2A-F735-4FB4-A0DE-BCA9D50630F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E9E55F-5D4F-4673-BA46-C22A592D056A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1022,4 +1002,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF0DDD2A-F735-4FB4-A0DE-BCA9D50630F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFCEF94-47CC-4377-885A-3F4E6CFE41EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="83d22809-4570-4008-babe-3ae5f737a446"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="848defe1-ccd9-4d84-9093-f78a75d0b7a6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>